--- a/ASIIP PGTOS 2024 - STATUS.xlsx
+++ b/ASIIP PGTOS 2024 - STATUS.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Adriane Jensen</t>
   </si>
   <si>
-    <t xml:space="preserve">Afonso José Cruz</t>
+    <t xml:space="preserve">Afonso José de Oliveira Cruz</t>
   </si>
   <si>
     <t xml:space="preserve">Faleceu</t>
@@ -88,28 +88,28 @@
     <t xml:space="preserve">NÃO ASSOCIADO</t>
   </si>
   <si>
-    <t xml:space="preserve">Alan de Araujo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfredo Marcos Prado</t>
+    <t xml:space="preserve">Alan de Araujo Bevervanco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfredo Marcos do Prado</t>
   </si>
   <si>
     <t xml:space="preserve">EM NEGOCIACAO</t>
   </si>
   <si>
-    <t xml:space="preserve">Alexandre Augusto Ca</t>
+    <t xml:space="preserve">Alexandre Augusto de Carvalho</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">Aline Maria Stonoga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allan Simas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amanda Rodrigues</t>
+    <t xml:space="preserve">Aline Maria Emilia Stonoga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allan Simas de Albuquerque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanda Rodrigues de Mello</t>
   </si>
   <si>
     <t xml:space="preserve">Amilcar Jawad Omairi</t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">MENSALIDADE ATRASADA</t>
   </si>
   <si>
-    <t xml:space="preserve">Ana Líbera Sabadin Cavalli Weber</t>
+    <t xml:space="preserve">Ana Libera Sabadin Cavalli Weber</t>
   </si>
   <si>
     <t xml:space="preserve">Ana Paula do Nascimento</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">Ana Paula Fabris</t>
   </si>
   <si>
-    <t xml:space="preserve">Ana Paula Gruss</t>
+    <t xml:space="preserve">Ana Paula Grus</t>
   </si>
   <si>
     <t xml:space="preserve">Aposent.</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Andressa Gabriela Vieira da Silva</t>
   </si>
   <si>
-    <t xml:space="preserve">Antonio Lourenço Martins Jr.</t>
+    <t xml:space="preserve">Antonio Lourenço Martins Junior</t>
   </si>
   <si>
     <t xml:space="preserve">verificar</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">Arthur Atolini</t>
   </si>
   <si>
-    <t xml:space="preserve">Bárbara Erthal </t>
+    <t xml:space="preserve">Bárbara Erthal Pereira</t>
   </si>
   <si>
     <t xml:space="preserve">Beatriz de Souza Paula</t>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">Bianca Dias Fonseca</t>
   </si>
   <si>
-    <t xml:space="preserve">Bruno Barros</t>
+    <t xml:space="preserve">Bruno Barros Cunha</t>
   </si>
   <si>
     <t xml:space="preserve">Camila Gomes Pereira</t>
@@ -181,16 +181,16 @@
     <t xml:space="preserve">Carlos Augusto Vieira</t>
   </si>
   <si>
-    <t xml:space="preserve">Carlos Henrique C. V. da Silva</t>
+    <t xml:space="preserve">Carlos Henrique Correa Viana da Silva</t>
   </si>
   <si>
     <t xml:space="preserve">R$20,00</t>
   </si>
   <si>
-    <t xml:space="preserve">Caroline Cezar de Moura B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cassiana Gaboardi</t>
+    <t xml:space="preserve">Caroline Cezar de Moura Bueno Beckert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassiana Gaboardi Ramos</t>
   </si>
   <si>
     <t xml:space="preserve">Claudionor Felipe Mendes Lopes</t>
@@ -199,22 +199,22 @@
     <t xml:space="preserve">Clayton Cezar Gobetti</t>
   </si>
   <si>
-    <t xml:space="preserve">Danilo Lemos</t>
+    <t xml:space="preserve">Danilo Lemos Pereira</t>
   </si>
   <si>
     <t xml:space="preserve">Denise Maria de Barros</t>
   </si>
   <si>
-    <t xml:space="preserve">Desyree Gorte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eder dos Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Cezar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edvaldo Pontes</t>
+    <t xml:space="preserve">Desyrêe Gorte Batista Cheratzki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eder dos Santos Mazuco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Cezar Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edvaldo Martinez Pontes Belasques</t>
   </si>
   <si>
     <t xml:space="preserve">Elisa Rodrigues Manoeli Pinna</t>
@@ -223,7 +223,7 @@
     <t xml:space="preserve">Elly Astrid Vedam</t>
   </si>
   <si>
-    <t xml:space="preserve">Enilce Grossko</t>
+    <t xml:space="preserve">Enilce Grosskopf Davet</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">Evandro Morande Becker</t>
   </si>
   <si>
-    <t xml:space="preserve">Fabiana A Cald</t>
+    <t xml:space="preserve">Fabiana Alves Calderani</t>
   </si>
   <si>
     <t xml:space="preserve">Fabiano Mur</t>
@@ -250,7 +250,7 @@
     <t xml:space="preserve">Desfiliado</t>
   </si>
   <si>
-    <t xml:space="preserve">Fernanda Cardoso</t>
+    <t xml:space="preserve">Fernanda Cardoso Biato da Costa</t>
   </si>
   <si>
     <t xml:space="preserve">Fernanda Gomes Tanferre</t>
@@ -262,16 +262,16 @@
     <t xml:space="preserve">Francielly da Costa Silva</t>
   </si>
   <si>
-    <t xml:space="preserve">Gabriel H F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo Henrique</t>
+    <t xml:space="preserve">Gabriel Henrique Ferreira Neves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo Henrique da Silva Oliveira</t>
   </si>
   <si>
     <t xml:space="preserve">Halana Modesto</t>
   </si>
   <si>
-    <t xml:space="preserve">Halekssandra Thamiriz S. Gonçalves</t>
+    <t xml:space="preserve">Halekssandra Thamiriz Schicora Gonçalves</t>
   </si>
   <si>
     <t xml:space="preserve">19/0724</t>
@@ -283,10 +283,10 @@
     <t xml:space="preserve">Ieda Mara Salgado</t>
   </si>
   <si>
-    <t xml:space="preserve">Isabelle Beatriz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isis Bertalha</t>
+    <t xml:space="preserve">Isabelle Beatriz Adriano Motta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isis Bertalha Yaegashi Maia</t>
   </si>
   <si>
     <t xml:space="preserve">Ivan de Oliveira Torres</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">Desfialiado</t>
   </si>
   <si>
-    <t xml:space="preserve">Jamyle Sadoski de Souza</t>
+    <t xml:space="preserve">Jamyle Noilthalene Sadoski de Souza</t>
   </si>
   <si>
     <t xml:space="preserve">Janice Elise</t>
@@ -310,43 +310,43 @@
     <t xml:space="preserve">????</t>
   </si>
   <si>
-    <t xml:space="preserve">Jefferson Cooper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerovaldo Viana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jessika Nab</t>
+    <t xml:space="preserve">Jefferson Cooper Floriani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerovaldo Viana Junior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessika Nabao Lopes Ferreira</t>
   </si>
   <si>
     <t xml:space="preserve">Desf. </t>
   </si>
   <si>
-    <t xml:space="preserve">Jeyson Jobim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">João Vitor Giangiacomo Bacalate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Vitor Joanoni Pinhato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juliane Simas</t>
+    <t xml:space="preserve">Jeyson Jobim Correa Lemes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Vitor Giangiacomo Bocalete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Victor Joanoni Pinhata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juliane Simas de Albuquerque</t>
   </si>
   <si>
     <t xml:space="preserve">Julio Cesar Nogueira</t>
   </si>
   <si>
-    <t xml:space="preserve">Juliana Fernanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juliana Gonçalves</t>
+    <t xml:space="preserve">Juliana Fernandes Bahls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juliana Gonçalves Capobianco</t>
   </si>
   <si>
     <t xml:space="preserve">Juliana Lepieszynski</t>
   </si>
   <si>
-    <t xml:space="preserve">Juliana Vilela de Barros</t>
+    <t xml:space="preserve">Juliana Villela de Barros Pereira</t>
   </si>
   <si>
     <t xml:space="preserve">Karine Kapp</t>
@@ -355,16 +355,16 @@
     <t xml:space="preserve">Katia Dias Martins</t>
   </si>
   <si>
-    <t xml:space="preserve">Karol Kasuko Araki Fragoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katiuscia Marmoll</t>
+    <t xml:space="preserve">Karol Kasuko Arake Fragoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katiuscia Marmol Riffel</t>
   </si>
   <si>
     <t xml:space="preserve">Leandra M Ribas</t>
   </si>
   <si>
-    <t xml:space="preserve">Leonardo Sella</t>
+    <t xml:space="preserve">Leonardo Sellaro Dorighello</t>
   </si>
   <si>
     <t xml:space="preserve">Liz Francieli Kobay</t>
@@ -373,7 +373,7 @@
     <t xml:space="preserve">Lucas Saiki Toyoshima</t>
   </si>
   <si>
-    <t xml:space="preserve">Luciana E Alves</t>
+    <t xml:space="preserve">Luciana Eberhardt Alves Rios</t>
   </si>
   <si>
     <t xml:space="preserve">Luciana Nascimento</t>
@@ -394,7 +394,7 @@
     <t xml:space="preserve">Marco Antonio Ghiggi</t>
   </si>
   <si>
-    <t xml:space="preserve">Marcos Luiz Ro</t>
+    <t xml:space="preserve">Marcos Luiz Rodrigues</t>
   </si>
   <si>
     <t xml:space="preserve">Marilia Castro de Melo</t>
@@ -412,7 +412,7 @@
     <t xml:space="preserve">Maria Thereza - Alexandre Martins Ferreira - Carioca</t>
   </si>
   <si>
-    <t xml:space="preserve">Meire Silvia</t>
+    <t xml:space="preserve">Meire Silvia Garcia</t>
   </si>
   <si>
     <t xml:space="preserve">Michele Cristina Banas</t>
@@ -427,7 +427,7 @@
     <t xml:space="preserve">Monica Cristina Barbieri</t>
   </si>
   <si>
-    <t xml:space="preserve">Myrlla Carvalho</t>
+    <t xml:space="preserve">Myrlla Carvalho Alexandre</t>
   </si>
   <si>
     <t xml:space="preserve">Neide Antunes Lula</t>
@@ -442,22 +442,22 @@
     <t xml:space="preserve">Patricia da Cruz Biscola</t>
   </si>
   <si>
-    <t xml:space="preserve">Paulo Henrique Pegoraro</t>
+    <t xml:space="preserve">Paulo Henrique Pegoraro de Godoi</t>
   </si>
   <si>
     <t xml:space="preserve">Paulo Ricardo de Araujo</t>
   </si>
   <si>
-    <t xml:space="preserve">Pedro Felipe</t>
+    <t xml:space="preserve">Pedro Felipe Nunes Gomes</t>
   </si>
   <si>
     <t xml:space="preserve">Raul Ferreira Marinho</t>
   </si>
   <si>
-    <t xml:space="preserve">Regiane Apa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reginaldo Fabricio</t>
+    <t xml:space="preserve">Regiane Aparecida Pego Juchem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reginaldo Fabricio de Lima</t>
   </si>
   <si>
     <t xml:space="preserve">01/04//24</t>
@@ -484,7 +484,7 @@
     <t xml:space="preserve">Sergio Luiz de Miranda Alves</t>
   </si>
   <si>
-    <t xml:space="preserve">Suelen de C</t>
+    <t xml:space="preserve">Suelen de Cassia Silva</t>
   </si>
   <si>
     <t xml:space="preserve">Suzan Gonçalves Franco </t>
@@ -493,7 +493,7 @@
     <t xml:space="preserve">Tathiana Carla Honorato</t>
   </si>
   <si>
-    <t xml:space="preserve">Thainá Giordan</t>
+    <t xml:space="preserve">Thainá Giordani</t>
   </si>
   <si>
     <t xml:space="preserve">Thaisa Batista Chicouski Pereira</t>
@@ -511,7 +511,7 @@
     <t xml:space="preserve">Vivian Ribeiro Ferreira Alves</t>
   </si>
   <si>
-    <t xml:space="preserve">Wagner Raphael Prado</t>
+    <t xml:space="preserve">Wagner Raphael Prado Vieira</t>
   </si>
   <si>
     <t xml:space="preserve">William Claiton Gomes da Silva</t>
@@ -539,15 +539,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="d/m/yy"/>
     <numFmt numFmtId="167" formatCode="mm/yyyy"/>
     <numFmt numFmtId="168" formatCode="m/yyyy"/>
-    <numFmt numFmtId="169" formatCode="dd\/mm\/yy"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="170" formatCode="dd\/mm\/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -588,6 +589,13 @@
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -650,7 +658,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
     <fill>
@@ -728,7 +736,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -925,7 +933,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -957,7 +973,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1006,11 +1026,18 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1091,7 +1118,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF1F1F1F"/>
@@ -1112,16 +1139,16 @@
   <dimension ref="A1:AE1038"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="Q115" activeCellId="0" sqref="Q115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="16" style="0" width="8.71"/>
   </cols>
   <sheetData>
@@ -1172,7 +1199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1248,7 +1275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1320,7 +1347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1531,7 +1558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -3008,7 +3035,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="49" t="s">
         <v>85</v>
       </c>
       <c r="B56" s="5"/>
@@ -3097,7 +3124,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="50" t="s">
         <v>88</v>
       </c>
       <c r="B59" s="34" t="s">
@@ -3141,7 +3168,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="51" t="s">
         <v>91</v>
       </c>
       <c r="B61" s="5"/>
@@ -3176,7 +3203,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="51" t="s">
         <v>92</v>
       </c>
       <c r="B62" s="37" t="n">
@@ -3557,7 +3584,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="50" t="s">
+      <c r="A74" s="52" t="s">
         <v>106</v>
       </c>
       <c r="B74" s="5"/>
@@ -3582,7 +3609,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="51" t="s">
+      <c r="A75" s="53" t="s">
         <v>107</v>
       </c>
       <c r="B75" s="45" t="n">
@@ -3611,7 +3638,7 @@
       <c r="A76" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="52"/>
+      <c r="B76" s="54"/>
       <c r="C76" s="8" t="s">
         <v>25</v>
       </c>
@@ -3688,7 +3715,7 @@
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
-      <c r="G78" s="53"/>
+      <c r="G78" s="55"/>
       <c r="H78" s="36" t="n">
         <v>45460</v>
       </c>
@@ -3740,7 +3767,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="51" t="s">
         <v>112</v>
       </c>
       <c r="B80" s="45" t="n">
@@ -4082,7 +4109,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="49" t="s">
         <v>122</v>
       </c>
       <c r="B90" s="5"/>
@@ -4120,7 +4147,7 @@
       <c r="A91" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="54" t="n">
+      <c r="B91" s="56" t="n">
         <v>45422</v>
       </c>
       <c r="C91" s="30" t="s">
@@ -4157,7 +4184,7 @@
       <c r="A92" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="54" t="n">
+      <c r="B92" s="56" t="n">
         <v>45266</v>
       </c>
       <c r="C92" s="30" t="s">
@@ -4212,7 +4239,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="49" t="s">
         <v>126</v>
       </c>
       <c r="B94" s="5"/>
@@ -4268,7 +4295,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="49" t="s">
+      <c r="A96" s="50" t="s">
         <v>128</v>
       </c>
       <c r="B96" s="34"/>
@@ -4310,7 +4337,7 @@
       <c r="O97" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="P97" s="55"/>
+      <c r="P97" s="57"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
@@ -4409,7 +4436,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="49" t="s">
         <v>133</v>
       </c>
       <c r="B101" s="5"/>
@@ -4479,7 +4506,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="49" t="s">
         <v>135</v>
       </c>
       <c r="B103" s="5"/>
@@ -4531,7 +4558,7 @@
       <c r="K104" s="25"/>
       <c r="L104" s="25"/>
       <c r="M104" s="25"/>
-      <c r="N104" s="56"/>
+      <c r="N104" s="58"/>
       <c r="O104" s="0" t="s">
         <v>20</v>
       </c>
@@ -4786,7 +4813,7 @@
       <c r="A113" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B113" s="54" t="n">
+      <c r="B113" s="56" t="n">
         <v>44658</v>
       </c>
       <c r="C113" s="11" t="n">
@@ -4807,14 +4834,18 @@
       <c r="H113" s="6" t="n">
         <v>45484</v>
       </c>
-      <c r="I113" s="6"/>
-      <c r="J113" s="8"/>
+      <c r="I113" s="59" t="n">
+        <v>45515</v>
+      </c>
+      <c r="J113" s="59" t="n">
+        <v>45515</v>
+      </c>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
       <c r="N113" s="10"/>
       <c r="O113" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5003,10 +5034,10 @@
         <v>153</v>
       </c>
       <c r="B119" s="5"/>
-      <c r="C119" s="57" t="n">
+      <c r="C119" s="60" t="n">
         <v>45293</v>
       </c>
-      <c r="D119" s="57" t="n">
+      <c r="D119" s="60" t="n">
         <v>45322</v>
       </c>
       <c r="E119" s="6" t="n">
@@ -5265,7 +5296,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="51" t="s">
+      <c r="A127" s="53" t="s">
         <v>161</v>
       </c>
       <c r="B127" s="5"/>
@@ -5333,7 +5364,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="51" t="s">
         <v>163</v>
       </c>
       <c r="B129" s="5"/>
@@ -5368,2758 +5399,2758 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="58"/>
+      <c r="B130" s="61"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="49" t="s">
+      <c r="A131" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="B131" s="49"/>
-      <c r="C131" s="49"/>
-      <c r="D131" s="49"/>
-      <c r="E131" s="49"/>
-      <c r="F131" s="49"/>
-      <c r="G131" s="49"/>
-      <c r="H131" s="49"/>
+      <c r="B131" s="50"/>
+      <c r="C131" s="50"/>
+      <c r="D131" s="50"/>
+      <c r="E131" s="50"/>
+      <c r="F131" s="50"/>
+      <c r="G131" s="50"/>
+      <c r="H131" s="50"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="59" t="s">
+      <c r="A132" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="B132" s="60"/>
-      <c r="C132" s="61"/>
-      <c r="D132" s="62"/>
+      <c r="B132" s="63"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="65"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="63" t="s">
+      <c r="A133" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="B133" s="58"/>
+      <c r="B133" s="61"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="64" t="s">
+      <c r="A134" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="B134" s="58"/>
+      <c r="B134" s="61"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="65" t="s">
+      <c r="A135" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="B135" s="58"/>
+      <c r="B135" s="61"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="66" t="s">
+      <c r="A136" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="B136" s="58"/>
+      <c r="B136" s="61"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="58"/>
+      <c r="B137" s="61"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="58"/>
+      <c r="B138" s="61"/>
       <c r="F138" s="31"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="58"/>
+      <c r="B139" s="61"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="58"/>
+      <c r="B140" s="61"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="58"/>
+      <c r="B141" s="61"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="58"/>
+      <c r="B142" s="61"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="58"/>
+      <c r="B143" s="61"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="58"/>
+      <c r="B144" s="61"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="58"/>
+      <c r="B145" s="61"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="58"/>
+      <c r="B146" s="61"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="58"/>
+      <c r="B147" s="61"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="58"/>
+      <c r="B148" s="61"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="58"/>
+      <c r="B149" s="61"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="58"/>
+      <c r="B150" s="61"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="58"/>
+      <c r="B151" s="61"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="58"/>
+      <c r="B152" s="61"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="58"/>
+      <c r="B153" s="61"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="58"/>
+      <c r="B154" s="61"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="58"/>
+      <c r="B155" s="61"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="58"/>
+      <c r="B156" s="61"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="58"/>
+      <c r="B157" s="61"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="58"/>
+      <c r="B158" s="61"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="58"/>
+      <c r="B159" s="61"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="58"/>
+      <c r="B160" s="61"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="58"/>
+      <c r="B161" s="61"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="58"/>
+      <c r="B162" s="61"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="58"/>
+      <c r="B163" s="61"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="58"/>
+      <c r="B164" s="61"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="58"/>
+      <c r="B165" s="61"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="58"/>
+      <c r="B166" s="61"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="58"/>
+      <c r="B167" s="61"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="58"/>
+      <c r="B168" s="61"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B169" s="58"/>
+      <c r="B169" s="61"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="58"/>
+      <c r="B170" s="61"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="58"/>
+      <c r="B171" s="61"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="58"/>
+      <c r="B172" s="61"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="58"/>
+      <c r="B173" s="61"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="58"/>
+      <c r="B174" s="61"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="58"/>
+      <c r="B175" s="61"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="58"/>
+      <c r="B176" s="61"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="58"/>
+      <c r="B177" s="61"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="58"/>
+      <c r="B178" s="61"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="58"/>
+      <c r="B179" s="61"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="58"/>
+      <c r="B180" s="61"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="58"/>
+      <c r="B181" s="61"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="58"/>
+      <c r="B182" s="61"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="58"/>
+      <c r="B183" s="61"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="58"/>
+      <c r="B184" s="61"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="58"/>
+      <c r="B185" s="61"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="58"/>
+      <c r="B186" s="61"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="58"/>
+      <c r="B187" s="61"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="58"/>
+      <c r="B188" s="61"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="58"/>
+      <c r="B189" s="61"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="58"/>
+      <c r="B190" s="61"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="58"/>
+      <c r="B191" s="61"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="58"/>
+      <c r="B192" s="61"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="58"/>
+      <c r="B193" s="61"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="58"/>
+      <c r="B194" s="61"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="58"/>
+      <c r="B195" s="61"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="58"/>
+      <c r="B196" s="61"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="58"/>
+      <c r="B197" s="61"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="58"/>
+      <c r="B198" s="61"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="58"/>
+      <c r="B199" s="61"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="58"/>
+      <c r="B200" s="61"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B201" s="58"/>
+      <c r="B201" s="61"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B202" s="58"/>
+      <c r="B202" s="61"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B203" s="58"/>
+      <c r="B203" s="61"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B204" s="58"/>
+      <c r="B204" s="61"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B205" s="58"/>
+      <c r="B205" s="61"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B206" s="58"/>
+      <c r="B206" s="61"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B207" s="58"/>
+      <c r="B207" s="61"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B208" s="58"/>
+      <c r="B208" s="61"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B209" s="58"/>
+      <c r="B209" s="61"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B210" s="58"/>
+      <c r="B210" s="61"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B211" s="58"/>
+      <c r="B211" s="61"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B212" s="58"/>
+      <c r="B212" s="61"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B213" s="58"/>
+      <c r="B213" s="61"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B214" s="58"/>
+      <c r="B214" s="61"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B215" s="58"/>
+      <c r="B215" s="61"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B216" s="58"/>
+      <c r="B216" s="61"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B217" s="58"/>
+      <c r="B217" s="61"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B218" s="58"/>
+      <c r="B218" s="61"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B219" s="58"/>
+      <c r="B219" s="61"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B220" s="58"/>
+      <c r="B220" s="61"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B221" s="58"/>
+      <c r="B221" s="61"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B222" s="58"/>
+      <c r="B222" s="61"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B223" s="58"/>
+      <c r="B223" s="61"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B224" s="58"/>
+      <c r="B224" s="61"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B225" s="58"/>
+      <c r="B225" s="61"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B226" s="58"/>
+      <c r="B226" s="61"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B227" s="58"/>
+      <c r="B227" s="61"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B228" s="58"/>
+      <c r="B228" s="61"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B229" s="58"/>
+      <c r="B229" s="61"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B230" s="58"/>
+      <c r="B230" s="61"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B231" s="58"/>
+      <c r="B231" s="61"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B232" s="58"/>
+      <c r="B232" s="61"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B233" s="58"/>
+      <c r="B233" s="61"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B234" s="58"/>
+      <c r="B234" s="61"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B235" s="58"/>
+      <c r="B235" s="61"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B236" s="58"/>
+      <c r="B236" s="61"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B237" s="58"/>
+      <c r="B237" s="61"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B238" s="58"/>
+      <c r="B238" s="61"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B239" s="58"/>
+      <c r="B239" s="61"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B240" s="58"/>
+      <c r="B240" s="61"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B241" s="58"/>
+      <c r="B241" s="61"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B242" s="58"/>
+      <c r="B242" s="61"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B243" s="58"/>
+      <c r="B243" s="61"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B244" s="58"/>
+      <c r="B244" s="61"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B245" s="58"/>
+      <c r="B245" s="61"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B246" s="58"/>
+      <c r="B246" s="61"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B247" s="58"/>
+      <c r="B247" s="61"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B248" s="58"/>
+      <c r="B248" s="61"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B249" s="58"/>
+      <c r="B249" s="61"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B250" s="58"/>
+      <c r="B250" s="61"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B251" s="58"/>
+      <c r="B251" s="61"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B252" s="58"/>
+      <c r="B252" s="61"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B253" s="58"/>
+      <c r="B253" s="61"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B254" s="58"/>
+      <c r="B254" s="61"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B255" s="58"/>
+      <c r="B255" s="61"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B256" s="58"/>
+      <c r="B256" s="61"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B257" s="58"/>
+      <c r="B257" s="61"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B258" s="58"/>
+      <c r="B258" s="61"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B259" s="58"/>
+      <c r="B259" s="61"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B260" s="58"/>
+      <c r="B260" s="61"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B261" s="58"/>
+      <c r="B261" s="61"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B262" s="58"/>
+      <c r="B262" s="61"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B263" s="58"/>
+      <c r="B263" s="61"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B264" s="58"/>
+      <c r="B264" s="61"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B265" s="58"/>
+      <c r="B265" s="61"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B266" s="58"/>
+      <c r="B266" s="61"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B267" s="58"/>
+      <c r="B267" s="61"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B268" s="58"/>
+      <c r="B268" s="61"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B269" s="58"/>
+      <c r="B269" s="61"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B270" s="58"/>
+      <c r="B270" s="61"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B271" s="58"/>
+      <c r="B271" s="61"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B272" s="58"/>
+      <c r="B272" s="61"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B273" s="58"/>
+      <c r="B273" s="61"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B274" s="58"/>
+      <c r="B274" s="61"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B275" s="58"/>
+      <c r="B275" s="61"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B276" s="58"/>
+      <c r="B276" s="61"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B277" s="58"/>
+      <c r="B277" s="61"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B278" s="58"/>
+      <c r="B278" s="61"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B279" s="58"/>
+      <c r="B279" s="61"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B280" s="58"/>
+      <c r="B280" s="61"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B281" s="58"/>
+      <c r="B281" s="61"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B282" s="58"/>
+      <c r="B282" s="61"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B283" s="58"/>
+      <c r="B283" s="61"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B284" s="58"/>
+      <c r="B284" s="61"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B285" s="58"/>
+      <c r="B285" s="61"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B286" s="58"/>
+      <c r="B286" s="61"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B287" s="58"/>
+      <c r="B287" s="61"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B288" s="58"/>
+      <c r="B288" s="61"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B289" s="58"/>
+      <c r="B289" s="61"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B290" s="58"/>
+      <c r="B290" s="61"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B291" s="58"/>
+      <c r="B291" s="61"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B292" s="58"/>
+      <c r="B292" s="61"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B293" s="58"/>
+      <c r="B293" s="61"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B294" s="58"/>
+      <c r="B294" s="61"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B295" s="58"/>
+      <c r="B295" s="61"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B296" s="58"/>
+      <c r="B296" s="61"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B297" s="58"/>
+      <c r="B297" s="61"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B298" s="58"/>
+      <c r="B298" s="61"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B299" s="58"/>
+      <c r="B299" s="61"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B300" s="58"/>
+      <c r="B300" s="61"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B301" s="58"/>
+      <c r="B301" s="61"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B302" s="58"/>
+      <c r="B302" s="61"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B303" s="58"/>
+      <c r="B303" s="61"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B304" s="58"/>
+      <c r="B304" s="61"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B305" s="58"/>
+      <c r="B305" s="61"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B306" s="58"/>
+      <c r="B306" s="61"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B307" s="58"/>
+      <c r="B307" s="61"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B308" s="58"/>
+      <c r="B308" s="61"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B309" s="58"/>
+      <c r="B309" s="61"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B310" s="58"/>
+      <c r="B310" s="61"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B311" s="58"/>
+      <c r="B311" s="61"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B312" s="58"/>
+      <c r="B312" s="61"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B313" s="58"/>
+      <c r="B313" s="61"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B314" s="58"/>
+      <c r="B314" s="61"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B315" s="58"/>
+      <c r="B315" s="61"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B316" s="58"/>
+      <c r="B316" s="61"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B317" s="58"/>
+      <c r="B317" s="61"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B318" s="58"/>
+      <c r="B318" s="61"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B319" s="58"/>
+      <c r="B319" s="61"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B320" s="58"/>
+      <c r="B320" s="61"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B321" s="58"/>
+      <c r="B321" s="61"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B322" s="58"/>
+      <c r="B322" s="61"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B323" s="58"/>
+      <c r="B323" s="61"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B324" s="58"/>
+      <c r="B324" s="61"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B325" s="58"/>
+      <c r="B325" s="61"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B326" s="58"/>
+      <c r="B326" s="61"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B327" s="58"/>
+      <c r="B327" s="61"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B328" s="58"/>
+      <c r="B328" s="61"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B329" s="58"/>
+      <c r="B329" s="61"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B330" s="58"/>
+      <c r="B330" s="61"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B331" s="58"/>
+      <c r="B331" s="61"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B332" s="58"/>
+      <c r="B332" s="61"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B333" s="58"/>
+      <c r="B333" s="61"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B334" s="58"/>
+      <c r="B334" s="61"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B335" s="58"/>
+      <c r="B335" s="61"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B336" s="58"/>
+      <c r="B336" s="61"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B337" s="58"/>
+      <c r="B337" s="61"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B338" s="58"/>
+      <c r="B338" s="61"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B339" s="58"/>
+      <c r="B339" s="61"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B340" s="58"/>
+      <c r="B340" s="61"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B341" s="58"/>
+      <c r="B341" s="61"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B342" s="58"/>
+      <c r="B342" s="61"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B343" s="58"/>
+      <c r="B343" s="61"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B344" s="58"/>
+      <c r="B344" s="61"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B345" s="58"/>
+      <c r="B345" s="61"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B346" s="58"/>
+      <c r="B346" s="61"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B347" s="58"/>
+      <c r="B347" s="61"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B348" s="58"/>
+      <c r="B348" s="61"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B349" s="58"/>
+      <c r="B349" s="61"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B350" s="58"/>
+      <c r="B350" s="61"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B351" s="58"/>
+      <c r="B351" s="61"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B352" s="58"/>
+      <c r="B352" s="61"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B353" s="58"/>
+      <c r="B353" s="61"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B354" s="58"/>
+      <c r="B354" s="61"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B355" s="58"/>
+      <c r="B355" s="61"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B356" s="58"/>
+      <c r="B356" s="61"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B357" s="58"/>
+      <c r="B357" s="61"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B358" s="58"/>
+      <c r="B358" s="61"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B359" s="58"/>
+      <c r="B359" s="61"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B360" s="58"/>
+      <c r="B360" s="61"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B361" s="58"/>
+      <c r="B361" s="61"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B362" s="58"/>
+      <c r="B362" s="61"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B363" s="58"/>
+      <c r="B363" s="61"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B364" s="58"/>
+      <c r="B364" s="61"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B365" s="58"/>
+      <c r="B365" s="61"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B366" s="58"/>
+      <c r="B366" s="61"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B367" s="58"/>
+      <c r="B367" s="61"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B368" s="58"/>
+      <c r="B368" s="61"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B369" s="58"/>
+      <c r="B369" s="61"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B370" s="58"/>
+      <c r="B370" s="61"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B371" s="58"/>
+      <c r="B371" s="61"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B372" s="58"/>
+      <c r="B372" s="61"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B373" s="58"/>
+      <c r="B373" s="61"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B374" s="58"/>
+      <c r="B374" s="61"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B375" s="58"/>
+      <c r="B375" s="61"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B376" s="58"/>
+      <c r="B376" s="61"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B377" s="58"/>
+      <c r="B377" s="61"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B378" s="58"/>
+      <c r="B378" s="61"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B379" s="58"/>
+      <c r="B379" s="61"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B380" s="58"/>
+      <c r="B380" s="61"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B381" s="58"/>
+      <c r="B381" s="61"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B382" s="58"/>
+      <c r="B382" s="61"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B383" s="58"/>
+      <c r="B383" s="61"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B384" s="58"/>
+      <c r="B384" s="61"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B385" s="58"/>
+      <c r="B385" s="61"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B386" s="58"/>
+      <c r="B386" s="61"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B387" s="58"/>
+      <c r="B387" s="61"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B388" s="58"/>
+      <c r="B388" s="61"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B389" s="58"/>
+      <c r="B389" s="61"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B390" s="58"/>
+      <c r="B390" s="61"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B391" s="58"/>
+      <c r="B391" s="61"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B392" s="58"/>
+      <c r="B392" s="61"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B393" s="58"/>
+      <c r="B393" s="61"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B394" s="58"/>
+      <c r="B394" s="61"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B395" s="58"/>
+      <c r="B395" s="61"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B396" s="58"/>
+      <c r="B396" s="61"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B397" s="58"/>
+      <c r="B397" s="61"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B398" s="58"/>
+      <c r="B398" s="61"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B399" s="58"/>
+      <c r="B399" s="61"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B400" s="58"/>
+      <c r="B400" s="61"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B401" s="58"/>
+      <c r="B401" s="61"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B402" s="58"/>
+      <c r="B402" s="61"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B403" s="58"/>
+      <c r="B403" s="61"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B404" s="58"/>
+      <c r="B404" s="61"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B405" s="58"/>
+      <c r="B405" s="61"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B406" s="58"/>
+      <c r="B406" s="61"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B407" s="58"/>
+      <c r="B407" s="61"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B408" s="58"/>
+      <c r="B408" s="61"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B409" s="58"/>
+      <c r="B409" s="61"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B410" s="58"/>
+      <c r="B410" s="61"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B411" s="58"/>
+      <c r="B411" s="61"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B412" s="58"/>
+      <c r="B412" s="61"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B413" s="58"/>
+      <c r="B413" s="61"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B414" s="58"/>
+      <c r="B414" s="61"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B415" s="58"/>
+      <c r="B415" s="61"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B416" s="58"/>
+      <c r="B416" s="61"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B417" s="58"/>
+      <c r="B417" s="61"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B418" s="58"/>
+      <c r="B418" s="61"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B419" s="58"/>
+      <c r="B419" s="61"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B420" s="58"/>
+      <c r="B420" s="61"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B421" s="58"/>
+      <c r="B421" s="61"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B422" s="58"/>
+      <c r="B422" s="61"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B423" s="58"/>
+      <c r="B423" s="61"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B424" s="58"/>
+      <c r="B424" s="61"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B425" s="58"/>
+      <c r="B425" s="61"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B426" s="58"/>
+      <c r="B426" s="61"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B427" s="58"/>
+      <c r="B427" s="61"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B428" s="58"/>
+      <c r="B428" s="61"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B429" s="58"/>
+      <c r="B429" s="61"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B430" s="58"/>
+      <c r="B430" s="61"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B431" s="58"/>
+      <c r="B431" s="61"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B432" s="58"/>
+      <c r="B432" s="61"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B433" s="58"/>
+      <c r="B433" s="61"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B434" s="58"/>
+      <c r="B434" s="61"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B435" s="58"/>
+      <c r="B435" s="61"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B436" s="58"/>
+      <c r="B436" s="61"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B437" s="58"/>
+      <c r="B437" s="61"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B438" s="58"/>
+      <c r="B438" s="61"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B439" s="58"/>
+      <c r="B439" s="61"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B440" s="58"/>
+      <c r="B440" s="61"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B441" s="58"/>
+      <c r="B441" s="61"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B442" s="58"/>
+      <c r="B442" s="61"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B443" s="58"/>
+      <c r="B443" s="61"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B444" s="58"/>
+      <c r="B444" s="61"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B445" s="58"/>
+      <c r="B445" s="61"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B446" s="58"/>
+      <c r="B446" s="61"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B447" s="58"/>
+      <c r="B447" s="61"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B448" s="58"/>
+      <c r="B448" s="61"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B449" s="58"/>
+      <c r="B449" s="61"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B450" s="58"/>
+      <c r="B450" s="61"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B451" s="58"/>
+      <c r="B451" s="61"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B452" s="58"/>
+      <c r="B452" s="61"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B453" s="58"/>
+      <c r="B453" s="61"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B454" s="58"/>
+      <c r="B454" s="61"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B455" s="58"/>
+      <c r="B455" s="61"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B456" s="58"/>
+      <c r="B456" s="61"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B457" s="58"/>
+      <c r="B457" s="61"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B458" s="58"/>
+      <c r="B458" s="61"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B459" s="58"/>
+      <c r="B459" s="61"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B460" s="58"/>
+      <c r="B460" s="61"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B461" s="58"/>
+      <c r="B461" s="61"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B462" s="58"/>
+      <c r="B462" s="61"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B463" s="58"/>
+      <c r="B463" s="61"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B464" s="58"/>
+      <c r="B464" s="61"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B465" s="58"/>
+      <c r="B465" s="61"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B466" s="58"/>
+      <c r="B466" s="61"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B467" s="58"/>
+      <c r="B467" s="61"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B468" s="58"/>
+      <c r="B468" s="61"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B469" s="58"/>
+      <c r="B469" s="61"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B470" s="58"/>
+      <c r="B470" s="61"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B471" s="58"/>
+      <c r="B471" s="61"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B472" s="58"/>
+      <c r="B472" s="61"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B473" s="58"/>
+      <c r="B473" s="61"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B474" s="58"/>
+      <c r="B474" s="61"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B475" s="58"/>
+      <c r="B475" s="61"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B476" s="58"/>
+      <c r="B476" s="61"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B477" s="58"/>
+      <c r="B477" s="61"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B478" s="58"/>
+      <c r="B478" s="61"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B479" s="58"/>
+      <c r="B479" s="61"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B480" s="58"/>
+      <c r="B480" s="61"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B481" s="58"/>
+      <c r="B481" s="61"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B482" s="58"/>
+      <c r="B482" s="61"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B483" s="58"/>
+      <c r="B483" s="61"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B484" s="58"/>
+      <c r="B484" s="61"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B485" s="58"/>
+      <c r="B485" s="61"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B486" s="58"/>
+      <c r="B486" s="61"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B487" s="58"/>
+      <c r="B487" s="61"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B488" s="58"/>
+      <c r="B488" s="61"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B489" s="58"/>
+      <c r="B489" s="61"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B490" s="58"/>
+      <c r="B490" s="61"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B491" s="58"/>
+      <c r="B491" s="61"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B492" s="58"/>
+      <c r="B492" s="61"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B493" s="58"/>
+      <c r="B493" s="61"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B494" s="58"/>
+      <c r="B494" s="61"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B495" s="58"/>
+      <c r="B495" s="61"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B496" s="58"/>
+      <c r="B496" s="61"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B497" s="58"/>
+      <c r="B497" s="61"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B498" s="58"/>
+      <c r="B498" s="61"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B499" s="58"/>
+      <c r="B499" s="61"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B500" s="58"/>
+      <c r="B500" s="61"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B501" s="58"/>
+      <c r="B501" s="61"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B502" s="58"/>
+      <c r="B502" s="61"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B503" s="58"/>
+      <c r="B503" s="61"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B504" s="58"/>
+      <c r="B504" s="61"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B505" s="58"/>
+      <c r="B505" s="61"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B506" s="58"/>
+      <c r="B506" s="61"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B507" s="58"/>
+      <c r="B507" s="61"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B508" s="58"/>
+      <c r="B508" s="61"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B509" s="58"/>
+      <c r="B509" s="61"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B510" s="58"/>
+      <c r="B510" s="61"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B511" s="58"/>
+      <c r="B511" s="61"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B512" s="58"/>
+      <c r="B512" s="61"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B513" s="58"/>
+      <c r="B513" s="61"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B514" s="58"/>
+      <c r="B514" s="61"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B515" s="58"/>
+      <c r="B515" s="61"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B516" s="58"/>
+      <c r="B516" s="61"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B517" s="58"/>
+      <c r="B517" s="61"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B518" s="58"/>
+      <c r="B518" s="61"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B519" s="58"/>
+      <c r="B519" s="61"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B520" s="58"/>
+      <c r="B520" s="61"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B521" s="58"/>
+      <c r="B521" s="61"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B522" s="58"/>
+      <c r="B522" s="61"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B523" s="58"/>
+      <c r="B523" s="61"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B524" s="58"/>
+      <c r="B524" s="61"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B525" s="58"/>
+      <c r="B525" s="61"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B526" s="58"/>
+      <c r="B526" s="61"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B527" s="58"/>
+      <c r="B527" s="61"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B528" s="58"/>
+      <c r="B528" s="61"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B529" s="58"/>
+      <c r="B529" s="61"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B530" s="58"/>
+      <c r="B530" s="61"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B531" s="58"/>
+      <c r="B531" s="61"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B532" s="58"/>
+      <c r="B532" s="61"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B533" s="58"/>
+      <c r="B533" s="61"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B534" s="58"/>
+      <c r="B534" s="61"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B535" s="58"/>
+      <c r="B535" s="61"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B536" s="58"/>
+      <c r="B536" s="61"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B537" s="58"/>
+      <c r="B537" s="61"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B538" s="58"/>
+      <c r="B538" s="61"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B539" s="58"/>
+      <c r="B539" s="61"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B540" s="58"/>
+      <c r="B540" s="61"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B541" s="58"/>
+      <c r="B541" s="61"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B542" s="58"/>
+      <c r="B542" s="61"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B543" s="58"/>
+      <c r="B543" s="61"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B544" s="58"/>
+      <c r="B544" s="61"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B545" s="58"/>
+      <c r="B545" s="61"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B546" s="58"/>
+      <c r="B546" s="61"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B547" s="58"/>
+      <c r="B547" s="61"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B548" s="58"/>
+      <c r="B548" s="61"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B549" s="58"/>
+      <c r="B549" s="61"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B550" s="58"/>
+      <c r="B550" s="61"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B551" s="58"/>
+      <c r="B551" s="61"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B552" s="58"/>
+      <c r="B552" s="61"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B553" s="58"/>
+      <c r="B553" s="61"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B554" s="58"/>
+      <c r="B554" s="61"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B555" s="58"/>
+      <c r="B555" s="61"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B556" s="58"/>
+      <c r="B556" s="61"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B557" s="58"/>
+      <c r="B557" s="61"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B558" s="58"/>
+      <c r="B558" s="61"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B559" s="58"/>
+      <c r="B559" s="61"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B560" s="58"/>
+      <c r="B560" s="61"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B561" s="58"/>
+      <c r="B561" s="61"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B562" s="58"/>
+      <c r="B562" s="61"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B563" s="58"/>
+      <c r="B563" s="61"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B564" s="58"/>
+      <c r="B564" s="61"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B565" s="58"/>
+      <c r="B565" s="61"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B566" s="58"/>
+      <c r="B566" s="61"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B567" s="58"/>
+      <c r="B567" s="61"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B568" s="58"/>
+      <c r="B568" s="61"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B569" s="58"/>
+      <c r="B569" s="61"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B570" s="58"/>
+      <c r="B570" s="61"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B571" s="58"/>
+      <c r="B571" s="61"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B572" s="58"/>
+      <c r="B572" s="61"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B573" s="58"/>
+      <c r="B573" s="61"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B574" s="58"/>
+      <c r="B574" s="61"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B575" s="58"/>
+      <c r="B575" s="61"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B576" s="58"/>
+      <c r="B576" s="61"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B577" s="58"/>
+      <c r="B577" s="61"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B578" s="58"/>
+      <c r="B578" s="61"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B579" s="58"/>
+      <c r="B579" s="61"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B580" s="58"/>
+      <c r="B580" s="61"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B581" s="58"/>
+      <c r="B581" s="61"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B582" s="58"/>
+      <c r="B582" s="61"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B583" s="58"/>
+      <c r="B583" s="61"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B584" s="58"/>
+      <c r="B584" s="61"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B585" s="58"/>
+      <c r="B585" s="61"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B586" s="58"/>
+      <c r="B586" s="61"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B587" s="58"/>
+      <c r="B587" s="61"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B588" s="58"/>
+      <c r="B588" s="61"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B589" s="58"/>
+      <c r="B589" s="61"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B590" s="58"/>
+      <c r="B590" s="61"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B591" s="58"/>
+      <c r="B591" s="61"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B592" s="58"/>
+      <c r="B592" s="61"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B593" s="58"/>
+      <c r="B593" s="61"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B594" s="58"/>
+      <c r="B594" s="61"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B595" s="58"/>
+      <c r="B595" s="61"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B596" s="58"/>
+      <c r="B596" s="61"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B597" s="58"/>
+      <c r="B597" s="61"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B598" s="58"/>
+      <c r="B598" s="61"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B599" s="58"/>
+      <c r="B599" s="61"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B600" s="58"/>
+      <c r="B600" s="61"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B601" s="58"/>
+      <c r="B601" s="61"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B602" s="58"/>
+      <c r="B602" s="61"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B603" s="58"/>
+      <c r="B603" s="61"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B604" s="58"/>
+      <c r="B604" s="61"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B605" s="58"/>
+      <c r="B605" s="61"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B606" s="58"/>
+      <c r="B606" s="61"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B607" s="58"/>
+      <c r="B607" s="61"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B608" s="58"/>
+      <c r="B608" s="61"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B609" s="58"/>
+      <c r="B609" s="61"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B610" s="58"/>
+      <c r="B610" s="61"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B611" s="58"/>
+      <c r="B611" s="61"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B612" s="58"/>
+      <c r="B612" s="61"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B613" s="58"/>
+      <c r="B613" s="61"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B614" s="58"/>
+      <c r="B614" s="61"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B615" s="58"/>
+      <c r="B615" s="61"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B616" s="58"/>
+      <c r="B616" s="61"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B617" s="58"/>
+      <c r="B617" s="61"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B618" s="58"/>
+      <c r="B618" s="61"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B619" s="58"/>
+      <c r="B619" s="61"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B620" s="58"/>
+      <c r="B620" s="61"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B621" s="58"/>
+      <c r="B621" s="61"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B622" s="58"/>
+      <c r="B622" s="61"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B623" s="58"/>
+      <c r="B623" s="61"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B624" s="58"/>
+      <c r="B624" s="61"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B625" s="58"/>
+      <c r="B625" s="61"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B626" s="58"/>
+      <c r="B626" s="61"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B627" s="58"/>
+      <c r="B627" s="61"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B628" s="58"/>
+      <c r="B628" s="61"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B629" s="58"/>
+      <c r="B629" s="61"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B630" s="58"/>
+      <c r="B630" s="61"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B631" s="58"/>
+      <c r="B631" s="61"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B632" s="58"/>
+      <c r="B632" s="61"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B633" s="58"/>
+      <c r="B633" s="61"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B634" s="58"/>
+      <c r="B634" s="61"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B635" s="58"/>
+      <c r="B635" s="61"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B636" s="58"/>
+      <c r="B636" s="61"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B637" s="58"/>
+      <c r="B637" s="61"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B638" s="58"/>
+      <c r="B638" s="61"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B639" s="58"/>
+      <c r="B639" s="61"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B640" s="58"/>
+      <c r="B640" s="61"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B641" s="58"/>
+      <c r="B641" s="61"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B642" s="58"/>
+      <c r="B642" s="61"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B643" s="58"/>
+      <c r="B643" s="61"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B644" s="58"/>
+      <c r="B644" s="61"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B645" s="58"/>
+      <c r="B645" s="61"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B646" s="58"/>
+      <c r="B646" s="61"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B647" s="58"/>
+      <c r="B647" s="61"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B648" s="58"/>
+      <c r="B648" s="61"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B649" s="58"/>
+      <c r="B649" s="61"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B650" s="58"/>
+      <c r="B650" s="61"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B651" s="58"/>
+      <c r="B651" s="61"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B652" s="58"/>
+      <c r="B652" s="61"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B653" s="58"/>
+      <c r="B653" s="61"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B654" s="58"/>
+      <c r="B654" s="61"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B655" s="58"/>
+      <c r="B655" s="61"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B656" s="58"/>
+      <c r="B656" s="61"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B657" s="58"/>
+      <c r="B657" s="61"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B658" s="58"/>
+      <c r="B658" s="61"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B659" s="58"/>
+      <c r="B659" s="61"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B660" s="58"/>
+      <c r="B660" s="61"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B661" s="58"/>
+      <c r="B661" s="61"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B662" s="58"/>
+      <c r="B662" s="61"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B663" s="58"/>
+      <c r="B663" s="61"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B664" s="58"/>
+      <c r="B664" s="61"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B665" s="58"/>
+      <c r="B665" s="61"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B666" s="58"/>
+      <c r="B666" s="61"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B667" s="58"/>
+      <c r="B667" s="61"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B668" s="58"/>
+      <c r="B668" s="61"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B669" s="58"/>
+      <c r="B669" s="61"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B670" s="58"/>
+      <c r="B670" s="61"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B671" s="58"/>
+      <c r="B671" s="61"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B672" s="58"/>
+      <c r="B672" s="61"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B673" s="58"/>
+      <c r="B673" s="61"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B674" s="58"/>
+      <c r="B674" s="61"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B675" s="58"/>
+      <c r="B675" s="61"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B676" s="58"/>
+      <c r="B676" s="61"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B677" s="58"/>
+      <c r="B677" s="61"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B678" s="58"/>
+      <c r="B678" s="61"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B679" s="58"/>
+      <c r="B679" s="61"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B680" s="58"/>
+      <c r="B680" s="61"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B681" s="58"/>
+      <c r="B681" s="61"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B682" s="58"/>
+      <c r="B682" s="61"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B683" s="58"/>
+      <c r="B683" s="61"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B684" s="58"/>
+      <c r="B684" s="61"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B685" s="58"/>
+      <c r="B685" s="61"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B686" s="58"/>
+      <c r="B686" s="61"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B687" s="58"/>
+      <c r="B687" s="61"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B688" s="58"/>
+      <c r="B688" s="61"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B689" s="58"/>
+      <c r="B689" s="61"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B690" s="58"/>
+      <c r="B690" s="61"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B691" s="58"/>
+      <c r="B691" s="61"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B692" s="58"/>
+      <c r="B692" s="61"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B693" s="58"/>
+      <c r="B693" s="61"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B694" s="58"/>
+      <c r="B694" s="61"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B695" s="58"/>
+      <c r="B695" s="61"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B696" s="58"/>
+      <c r="B696" s="61"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B697" s="58"/>
+      <c r="B697" s="61"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B698" s="58"/>
+      <c r="B698" s="61"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B699" s="58"/>
+      <c r="B699" s="61"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B700" s="58"/>
+      <c r="B700" s="61"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B701" s="58"/>
+      <c r="B701" s="61"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B702" s="58"/>
+      <c r="B702" s="61"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B703" s="58"/>
+      <c r="B703" s="61"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B704" s="58"/>
+      <c r="B704" s="61"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B705" s="58"/>
+      <c r="B705" s="61"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B706" s="58"/>
+      <c r="B706" s="61"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B707" s="58"/>
+      <c r="B707" s="61"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B708" s="58"/>
+      <c r="B708" s="61"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B709" s="58"/>
+      <c r="B709" s="61"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B710" s="58"/>
+      <c r="B710" s="61"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B711" s="58"/>
+      <c r="B711" s="61"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B712" s="58"/>
+      <c r="B712" s="61"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B713" s="58"/>
+      <c r="B713" s="61"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B714" s="58"/>
+      <c r="B714" s="61"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B715" s="58"/>
+      <c r="B715" s="61"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B716" s="58"/>
+      <c r="B716" s="61"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B717" s="58"/>
+      <c r="B717" s="61"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B718" s="58"/>
+      <c r="B718" s="61"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B719" s="58"/>
+      <c r="B719" s="61"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B720" s="58"/>
+      <c r="B720" s="61"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B721" s="58"/>
+      <c r="B721" s="61"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B722" s="58"/>
+      <c r="B722" s="61"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B723" s="58"/>
+      <c r="B723" s="61"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B724" s="58"/>
+      <c r="B724" s="61"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B725" s="58"/>
+      <c r="B725" s="61"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B726" s="58"/>
+      <c r="B726" s="61"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B727" s="58"/>
+      <c r="B727" s="61"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B728" s="58"/>
+      <c r="B728" s="61"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B729" s="58"/>
+      <c r="B729" s="61"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B730" s="58"/>
+      <c r="B730" s="61"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B731" s="58"/>
+      <c r="B731" s="61"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B732" s="58"/>
+      <c r="B732" s="61"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B733" s="58"/>
+      <c r="B733" s="61"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B734" s="58"/>
+      <c r="B734" s="61"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B735" s="58"/>
+      <c r="B735" s="61"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B736" s="58"/>
+      <c r="B736" s="61"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B737" s="58"/>
+      <c r="B737" s="61"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B738" s="58"/>
+      <c r="B738" s="61"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B739" s="58"/>
+      <c r="B739" s="61"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B740" s="58"/>
+      <c r="B740" s="61"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B741" s="58"/>
+      <c r="B741" s="61"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B742" s="58"/>
+      <c r="B742" s="61"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B743" s="58"/>
+      <c r="B743" s="61"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B744" s="58"/>
+      <c r="B744" s="61"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B745" s="58"/>
+      <c r="B745" s="61"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B746" s="58"/>
+      <c r="B746" s="61"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B747" s="58"/>
+      <c r="B747" s="61"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B748" s="58"/>
+      <c r="B748" s="61"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B749" s="58"/>
+      <c r="B749" s="61"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B750" s="58"/>
+      <c r="B750" s="61"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B751" s="58"/>
+      <c r="B751" s="61"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B752" s="58"/>
+      <c r="B752" s="61"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B753" s="58"/>
+      <c r="B753" s="61"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B754" s="58"/>
+      <c r="B754" s="61"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B755" s="58"/>
+      <c r="B755" s="61"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B756" s="58"/>
+      <c r="B756" s="61"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B757" s="58"/>
+      <c r="B757" s="61"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B758" s="58"/>
+      <c r="B758" s="61"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B759" s="58"/>
+      <c r="B759" s="61"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B760" s="58"/>
+      <c r="B760" s="61"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B761" s="58"/>
+      <c r="B761" s="61"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B762" s="58"/>
+      <c r="B762" s="61"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B763" s="58"/>
+      <c r="B763" s="61"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B764" s="58"/>
+      <c r="B764" s="61"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B765" s="58"/>
+      <c r="B765" s="61"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B766" s="58"/>
+      <c r="B766" s="61"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B767" s="58"/>
+      <c r="B767" s="61"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B768" s="58"/>
+      <c r="B768" s="61"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B769" s="58"/>
+      <c r="B769" s="61"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B770" s="58"/>
+      <c r="B770" s="61"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B771" s="58"/>
+      <c r="B771" s="61"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B772" s="58"/>
+      <c r="B772" s="61"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B773" s="58"/>
+      <c r="B773" s="61"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B774" s="58"/>
+      <c r="B774" s="61"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B775" s="58"/>
+      <c r="B775" s="61"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B776" s="58"/>
+      <c r="B776" s="61"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B777" s="58"/>
+      <c r="B777" s="61"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B778" s="58"/>
+      <c r="B778" s="61"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B779" s="58"/>
+      <c r="B779" s="61"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B780" s="58"/>
+      <c r="B780" s="61"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B781" s="58"/>
+      <c r="B781" s="61"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B782" s="58"/>
+      <c r="B782" s="61"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B783" s="58"/>
+      <c r="B783" s="61"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B784" s="58"/>
+      <c r="B784" s="61"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B785" s="58"/>
+      <c r="B785" s="61"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B786" s="58"/>
+      <c r="B786" s="61"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B787" s="58"/>
+      <c r="B787" s="61"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B788" s="58"/>
+      <c r="B788" s="61"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B789" s="58"/>
+      <c r="B789" s="61"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B790" s="58"/>
+      <c r="B790" s="61"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B791" s="58"/>
+      <c r="B791" s="61"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B792" s="58"/>
+      <c r="B792" s="61"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B793" s="58"/>
+      <c r="B793" s="61"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B794" s="58"/>
+      <c r="B794" s="61"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B795" s="58"/>
+      <c r="B795" s="61"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B796" s="58"/>
+      <c r="B796" s="61"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B797" s="58"/>
+      <c r="B797" s="61"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B798" s="58"/>
+      <c r="B798" s="61"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B799" s="58"/>
+      <c r="B799" s="61"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B800" s="58"/>
+      <c r="B800" s="61"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B801" s="58"/>
+      <c r="B801" s="61"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B802" s="58"/>
+      <c r="B802" s="61"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B803" s="58"/>
+      <c r="B803" s="61"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B804" s="58"/>
+      <c r="B804" s="61"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B805" s="58"/>
+      <c r="B805" s="61"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B806" s="58"/>
+      <c r="B806" s="61"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B807" s="58"/>
+      <c r="B807" s="61"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B808" s="58"/>
+      <c r="B808" s="61"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B809" s="58"/>
+      <c r="B809" s="61"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B810" s="58"/>
+      <c r="B810" s="61"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B811" s="58"/>
+      <c r="B811" s="61"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B812" s="58"/>
+      <c r="B812" s="61"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B813" s="58"/>
+      <c r="B813" s="61"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B814" s="58"/>
+      <c r="B814" s="61"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B815" s="58"/>
+      <c r="B815" s="61"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B816" s="58"/>
+      <c r="B816" s="61"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B817" s="58"/>
+      <c r="B817" s="61"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B818" s="58"/>
+      <c r="B818" s="61"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B819" s="58"/>
+      <c r="B819" s="61"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B820" s="58"/>
+      <c r="B820" s="61"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B821" s="58"/>
+      <c r="B821" s="61"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B822" s="58"/>
+      <c r="B822" s="61"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B823" s="58"/>
+      <c r="B823" s="61"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B824" s="58"/>
+      <c r="B824" s="61"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B825" s="58"/>
+      <c r="B825" s="61"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B826" s="58"/>
+      <c r="B826" s="61"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B827" s="58"/>
+      <c r="B827" s="61"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B828" s="58"/>
+      <c r="B828" s="61"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B829" s="58"/>
+      <c r="B829" s="61"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B830" s="58"/>
+      <c r="B830" s="61"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B831" s="58"/>
+      <c r="B831" s="61"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B832" s="58"/>
+      <c r="B832" s="61"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B833" s="58"/>
+      <c r="B833" s="61"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B834" s="58"/>
+      <c r="B834" s="61"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B835" s="58"/>
+      <c r="B835" s="61"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B836" s="58"/>
+      <c r="B836" s="61"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B837" s="58"/>
+      <c r="B837" s="61"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B838" s="58"/>
+      <c r="B838" s="61"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B839" s="58"/>
+      <c r="B839" s="61"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B840" s="58"/>
+      <c r="B840" s="61"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B841" s="58"/>
+      <c r="B841" s="61"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B842" s="58"/>
+      <c r="B842" s="61"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B843" s="58"/>
+      <c r="B843" s="61"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B844" s="58"/>
+      <c r="B844" s="61"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B845" s="58"/>
+      <c r="B845" s="61"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B846" s="58"/>
+      <c r="B846" s="61"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B847" s="58"/>
+      <c r="B847" s="61"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B848" s="58"/>
+      <c r="B848" s="61"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B849" s="58"/>
+      <c r="B849" s="61"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B850" s="58"/>
+      <c r="B850" s="61"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B851" s="58"/>
+      <c r="B851" s="61"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B852" s="58"/>
+      <c r="B852" s="61"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B853" s="58"/>
+      <c r="B853" s="61"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B854" s="58"/>
+      <c r="B854" s="61"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B855" s="58"/>
+      <c r="B855" s="61"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B856" s="58"/>
+      <c r="B856" s="61"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B857" s="58"/>
+      <c r="B857" s="61"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B858" s="58"/>
+      <c r="B858" s="61"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B859" s="58"/>
+      <c r="B859" s="61"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B860" s="58"/>
+      <c r="B860" s="61"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B861" s="58"/>
+      <c r="B861" s="61"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B862" s="58"/>
+      <c r="B862" s="61"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B863" s="58"/>
+      <c r="B863" s="61"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B864" s="58"/>
+      <c r="B864" s="61"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B865" s="58"/>
+      <c r="B865" s="61"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B866" s="58"/>
+      <c r="B866" s="61"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B867" s="58"/>
+      <c r="B867" s="61"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B868" s="58"/>
+      <c r="B868" s="61"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B869" s="58"/>
+      <c r="B869" s="61"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B870" s="58"/>
+      <c r="B870" s="61"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B871" s="58"/>
+      <c r="B871" s="61"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B872" s="58"/>
+      <c r="B872" s="61"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B873" s="58"/>
+      <c r="B873" s="61"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B874" s="58"/>
+      <c r="B874" s="61"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B875" s="58"/>
+      <c r="B875" s="61"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B876" s="58"/>
+      <c r="B876" s="61"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B877" s="58"/>
+      <c r="B877" s="61"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B878" s="58"/>
+      <c r="B878" s="61"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B879" s="58"/>
+      <c r="B879" s="61"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B880" s="58"/>
+      <c r="B880" s="61"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B881" s="58"/>
+      <c r="B881" s="61"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B882" s="58"/>
+      <c r="B882" s="61"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B883" s="58"/>
+      <c r="B883" s="61"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B884" s="58"/>
+      <c r="B884" s="61"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B885" s="58"/>
+      <c r="B885" s="61"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B886" s="58"/>
+      <c r="B886" s="61"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B887" s="58"/>
+      <c r="B887" s="61"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B888" s="58"/>
+      <c r="B888" s="61"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B889" s="58"/>
+      <c r="B889" s="61"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B890" s="58"/>
+      <c r="B890" s="61"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B891" s="58"/>
+      <c r="B891" s="61"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B892" s="58"/>
+      <c r="B892" s="61"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B893" s="58"/>
+      <c r="B893" s="61"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B894" s="58"/>
+      <c r="B894" s="61"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B895" s="58"/>
+      <c r="B895" s="61"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B896" s="58"/>
+      <c r="B896" s="61"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B897" s="58"/>
+      <c r="B897" s="61"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B898" s="58"/>
+      <c r="B898" s="61"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B899" s="58"/>
+      <c r="B899" s="61"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B900" s="58"/>
+      <c r="B900" s="61"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B901" s="58"/>
+      <c r="B901" s="61"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B902" s="58"/>
+      <c r="B902" s="61"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B903" s="58"/>
+      <c r="B903" s="61"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B904" s="58"/>
+      <c r="B904" s="61"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B905" s="58"/>
+      <c r="B905" s="61"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B906" s="58"/>
+      <c r="B906" s="61"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B907" s="58"/>
+      <c r="B907" s="61"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B908" s="58"/>
+      <c r="B908" s="61"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B909" s="58"/>
+      <c r="B909" s="61"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B910" s="58"/>
+      <c r="B910" s="61"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B911" s="58"/>
+      <c r="B911" s="61"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B912" s="58"/>
+      <c r="B912" s="61"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B913" s="58"/>
+      <c r="B913" s="61"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B914" s="58"/>
+      <c r="B914" s="61"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B915" s="58"/>
+      <c r="B915" s="61"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B916" s="58"/>
+      <c r="B916" s="61"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B917" s="58"/>
+      <c r="B917" s="61"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B918" s="58"/>
+      <c r="B918" s="61"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B919" s="58"/>
+      <c r="B919" s="61"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B920" s="58"/>
+      <c r="B920" s="61"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B921" s="58"/>
+      <c r="B921" s="61"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B922" s="58"/>
+      <c r="B922" s="61"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B923" s="58"/>
+      <c r="B923" s="61"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B924" s="58"/>
+      <c r="B924" s="61"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B925" s="58"/>
+      <c r="B925" s="61"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B926" s="58"/>
+      <c r="B926" s="61"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B927" s="58"/>
+      <c r="B927" s="61"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B928" s="58"/>
+      <c r="B928" s="61"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B929" s="58"/>
+      <c r="B929" s="61"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B930" s="58"/>
+      <c r="B930" s="61"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B931" s="58"/>
+      <c r="B931" s="61"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B932" s="58"/>
+      <c r="B932" s="61"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B933" s="58"/>
+      <c r="B933" s="61"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B934" s="58"/>
+      <c r="B934" s="61"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B935" s="58"/>
+      <c r="B935" s="61"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B936" s="58"/>
+      <c r="B936" s="61"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B937" s="58"/>
+      <c r="B937" s="61"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B938" s="58"/>
+      <c r="B938" s="61"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B939" s="58"/>
+      <c r="B939" s="61"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B940" s="58"/>
+      <c r="B940" s="61"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B941" s="58"/>
+      <c r="B941" s="61"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B942" s="58"/>
+      <c r="B942" s="61"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B943" s="58"/>
+      <c r="B943" s="61"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B944" s="58"/>
+      <c r="B944" s="61"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B945" s="58"/>
+      <c r="B945" s="61"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B946" s="58"/>
+      <c r="B946" s="61"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B947" s="58"/>
+      <c r="B947" s="61"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B948" s="58"/>
+      <c r="B948" s="61"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B949" s="58"/>
+      <c r="B949" s="61"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B950" s="58"/>
+      <c r="B950" s="61"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B951" s="58"/>
+      <c r="B951" s="61"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B952" s="58"/>
+      <c r="B952" s="61"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B953" s="58"/>
+      <c r="B953" s="61"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B954" s="58"/>
+      <c r="B954" s="61"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B955" s="58"/>
+      <c r="B955" s="61"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B956" s="58"/>
+      <c r="B956" s="61"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B957" s="58"/>
+      <c r="B957" s="61"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B958" s="58"/>
+      <c r="B958" s="61"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B959" s="58"/>
+      <c r="B959" s="61"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B960" s="58"/>
+      <c r="B960" s="61"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B961" s="58"/>
+      <c r="B961" s="61"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B962" s="58"/>
+      <c r="B962" s="61"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B963" s="58"/>
+      <c r="B963" s="61"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B964" s="58"/>
+      <c r="B964" s="61"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B965" s="58"/>
+      <c r="B965" s="61"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B966" s="58"/>
+      <c r="B966" s="61"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B967" s="58"/>
+      <c r="B967" s="61"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B968" s="58"/>
+      <c r="B968" s="61"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B969" s="58"/>
+      <c r="B969" s="61"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B970" s="58"/>
+      <c r="B970" s="61"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B971" s="58"/>
+      <c r="B971" s="61"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B972" s="58"/>
+      <c r="B972" s="61"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B973" s="58"/>
+      <c r="B973" s="61"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B974" s="58"/>
+      <c r="B974" s="61"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B975" s="58"/>
+      <c r="B975" s="61"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B976" s="58"/>
+      <c r="B976" s="61"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B977" s="58"/>
+      <c r="B977" s="61"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B978" s="58"/>
+      <c r="B978" s="61"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B979" s="58"/>
+      <c r="B979" s="61"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B980" s="58"/>
+      <c r="B980" s="61"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B981" s="58"/>
+      <c r="B981" s="61"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B982" s="58"/>
+      <c r="B982" s="61"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B983" s="58"/>
+      <c r="B983" s="61"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B984" s="58"/>
+      <c r="B984" s="61"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B985" s="58"/>
+      <c r="B985" s="61"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B986" s="58"/>
+      <c r="B986" s="61"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B987" s="58"/>
+      <c r="B987" s="61"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B988" s="58"/>
+      <c r="B988" s="61"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B989" s="58"/>
+      <c r="B989" s="61"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B990" s="58"/>
+      <c r="B990" s="61"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B991" s="58"/>
+      <c r="B991" s="61"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B992" s="58"/>
+      <c r="B992" s="61"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B993" s="58"/>
+      <c r="B993" s="61"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B994" s="58"/>
+      <c r="B994" s="61"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B995" s="58"/>
+      <c r="B995" s="61"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B996" s="58"/>
+      <c r="B996" s="61"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B997" s="58"/>
+      <c r="B997" s="61"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B998" s="58"/>
+      <c r="B998" s="61"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B999" s="58"/>
+      <c r="B999" s="61"/>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1000" s="58"/>
+      <c r="B1000" s="61"/>
     </row>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1001" s="58"/>
+      <c r="B1001" s="61"/>
     </row>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1002" s="58"/>
+      <c r="B1002" s="61"/>
     </row>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1003" s="58"/>
+      <c r="B1003" s="61"/>
     </row>
     <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1004" s="58"/>
+      <c r="B1004" s="61"/>
     </row>
     <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1005" s="58"/>
+      <c r="B1005" s="61"/>
     </row>
     <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1006" s="58"/>
+      <c r="B1006" s="61"/>
     </row>
     <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1007" s="58"/>
+      <c r="B1007" s="61"/>
     </row>
     <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1008" s="58"/>
+      <c r="B1008" s="61"/>
     </row>
     <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1009" s="58"/>
+      <c r="B1009" s="61"/>
     </row>
     <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1010" s="58"/>
+      <c r="B1010" s="61"/>
     </row>
     <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1011" s="58"/>
+      <c r="B1011" s="61"/>
     </row>
     <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1012" s="58"/>
+      <c r="B1012" s="61"/>
     </row>
     <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1013" s="58"/>
+      <c r="B1013" s="61"/>
     </row>
     <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1014" s="58"/>
+      <c r="B1014" s="61"/>
     </row>
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1015" s="58"/>
+      <c r="B1015" s="61"/>
     </row>
     <row r="1016" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1016" s="58"/>
+      <c r="B1016" s="61"/>
     </row>
     <row r="1017" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1017" s="58"/>
+      <c r="B1017" s="61"/>
     </row>
     <row r="1018" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1018" s="58"/>
+      <c r="B1018" s="61"/>
     </row>
     <row r="1019" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1019" s="58"/>
+      <c r="B1019" s="61"/>
     </row>
     <row r="1020" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1020" s="58"/>
+      <c r="B1020" s="61"/>
     </row>
     <row r="1021" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1021" s="58"/>
+      <c r="B1021" s="61"/>
     </row>
     <row r="1022" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1022" s="58"/>
+      <c r="B1022" s="61"/>
     </row>
     <row r="1023" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1023" s="58"/>
+      <c r="B1023" s="61"/>
     </row>
     <row r="1024" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1024" s="58"/>
+      <c r="B1024" s="61"/>
     </row>
     <row r="1025" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1025" s="58"/>
+      <c r="B1025" s="61"/>
     </row>
     <row r="1026" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1026" s="58"/>
+      <c r="B1026" s="61"/>
     </row>
     <row r="1027" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1027" s="58"/>
+      <c r="B1027" s="61"/>
     </row>
     <row r="1028" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1028" s="58"/>
+      <c r="B1028" s="61"/>
     </row>
     <row r="1029" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1029" s="58"/>
+      <c r="B1029" s="61"/>
     </row>
     <row r="1030" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1030" s="58"/>
+      <c r="B1030" s="61"/>
     </row>
     <row r="1031" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1031" s="58"/>
+      <c r="B1031" s="61"/>
     </row>
     <row r="1032" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1032" s="58"/>
+      <c r="B1032" s="61"/>
     </row>
     <row r="1033" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1033" s="58"/>
+      <c r="B1033" s="61"/>
     </row>
     <row r="1034" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1034" s="58"/>
+      <c r="B1034" s="61"/>
     </row>
     <row r="1035" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1035" s="58"/>
+      <c r="B1035" s="61"/>
     </row>
     <row r="1036" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1036" s="58"/>
+      <c r="B1036" s="61"/>
     </row>
     <row r="1037" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1037" s="58"/>
+      <c r="B1037" s="61"/>
     </row>
     <row r="1038" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1038" s="58"/>
+      <c r="B1038" s="61"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N129"/>
